--- a/data/Raw Data_04.06.2024.xlsx
+++ b/data/Raw Data_04.06.2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/judithrichter/Desktop/Bachelorarbeit/Daten/Hochzuladende Dateien/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/judithrichter/Desktop/bachelor/Conjoint-Analysis-2024/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75832D46-7D2C-9F44-A34F-A378FCDE6DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5FC2EF-5044-2543-81A0-FC7014B35B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="212" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" tabRatio="212" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="1" r:id="rId1"/>
@@ -29964,7 +29964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971FA23B-D38F-1C43-BB30-18EE14D0A3CA}">
   <dimension ref="A1:GP199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="GD1" zoomScale="138" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="GL1" sqref="GL1:GO1048576"/>
     </sheetView>
   </sheetViews>
